--- a/단어사전.xlsx
+++ b/단어사전.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="75">
   <si>
     <t>바베큐</t>
   </si>
@@ -241,6 +241,70 @@
   </si>
   <si>
     <t>산타힐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>범바우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해수관음상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>트레일러</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해파랑길</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해맞이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어촌체험마을</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>솔향왕갈비</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회센터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오토캠핌장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서피비치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7번국도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서프나인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>워터피아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>핫플</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>핫플레이스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>낙산랜드</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -592,10 +656,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A61"/>
+  <dimension ref="A1:A76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="A60" sqref="A60"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A77" sqref="A77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -904,7 +968,84 @@
       </c>
     </row>
     <row r="61" spans="1:1">
-      <c r="A61" s="1"/>
+      <c r="A61" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76" s="1" t="s">
+        <v>74</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/단어사전.xlsx
+++ b/단어사전.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="97">
   <si>
     <t>바베큐</t>
   </si>
@@ -136,10 +136,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>벅수치</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>검수골</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -305,6 +301,98 @@
   </si>
   <si>
     <t>낙산랜드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>양리단길</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>법수치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해돋이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>반려견</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메카</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>칵테일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>포토존</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인스타</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>페북</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>페이스북</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인스타그램</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>루프탑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5일장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킨스쿠버</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에어비앤비</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소보루</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>찹쌀빵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파마씨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>래쉬가드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고유어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지명/상호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신조어</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -656,10 +744,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A76"/>
+  <dimension ref="A1:B94"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A77" sqref="A77"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="A79" sqref="A79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -669,7 +757,7 @@
   <sheetData>
     <row r="1" spans="1:1" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:1">
@@ -804,7 +892,7 @@
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="29" spans="1:1">
@@ -844,12 +932,12 @@
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="1" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
     </row>
     <row r="38" spans="1:1">
@@ -859,7 +947,7 @@
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="1" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
     </row>
     <row r="40" spans="1:1">
@@ -949,12 +1037,12 @@
     </row>
     <row r="57" spans="1:1">
       <c r="A57" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="59" spans="1:1">
@@ -987,64 +1075,172 @@
         <v>62</v>
       </c>
     </row>
-    <row r="65" spans="1:1">
+    <row r="65" spans="1:2">
       <c r="A65" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="66" spans="1:1">
+    <row r="66" spans="1:2">
       <c r="A66" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="67" spans="1:1">
+    <row r="67" spans="1:2">
       <c r="A67" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="68" spans="1:1">
+    <row r="68" spans="1:2">
       <c r="A68" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="69" spans="1:1">
+    <row r="69" spans="1:2">
       <c r="A69" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="70" spans="1:1">
+    <row r="70" spans="1:2">
       <c r="A70" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="71" spans="1:1">
+    <row r="71" spans="1:2">
       <c r="A71" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="72" spans="1:1">
+    <row r="72" spans="1:2">
       <c r="A72" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="73" spans="1:1">
+    <row r="73" spans="1:2">
       <c r="A73" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="74" spans="1:1">
+    <row r="74" spans="1:2">
       <c r="A74" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="75" spans="1:1">
+    <row r="75" spans="1:2">
       <c r="A75" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="76" spans="1:1">
+    <row r="76" spans="1:2">
       <c r="A76" s="1" t="s">
         <v>74</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>

--- a/단어사전.xlsx
+++ b/단어사전.xlsx
@@ -746,8 +746,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="A79" sqref="A79"/>
+    <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
+      <selection activeCell="A95" sqref="A95:XFD95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
